--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
   <si>
     <t>Sezione</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
   </si>
   <si>
     <t>Provincia ente</t>
@@ -270,7 +282,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -278,34 +290,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.7421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="39.5390625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -899,10 +912,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -913,16 +926,16 @@
         <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -933,291 +946,62 @@
         <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{058BE517-2BF1-4A16-86C0-394A54B8FD38}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B3336CA-53DB-4A42-8DC6-A50D019A6BC9}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A3071D-2CD6-4DE3-BF6A-EF43AEA2CD26}"/>
 </file>
--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,6 +50,75 @@
     <t>191</t>
   </si>
   <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Autorità mittente</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Data richiesta</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
     <t>Formazione atto</t>
   </si>
   <si>
@@ -86,9 +155,6 @@
     <t>Data morte</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.datiDiMorte</t>
   </si>
   <si>
@@ -137,9 +203,6 @@
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>Stato - Descrizione</t>
-  </si>
-  <si>
     <t>nomeStatoMorte</t>
   </si>
   <si>
@@ -171,84 +234,6 @@
   </si>
   <si>
     <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Autorità mittente</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.atto.enteEstero</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Data richiesta</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Ruolo ente dichiarante</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.autoritaMittente</t>
-  </si>
-  <si>
-    <t>ruoloEnteDichiarante</t>
   </si>
 </sst>
 </file>
@@ -307,16 +292,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.73046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="39.5390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="38.4453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -382,57 +367,57 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -443,7 +428,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -452,7 +437,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -463,7 +448,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -472,10 +457,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -483,19 +468,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -503,19 +488,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -523,19 +508,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -543,19 +528,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -563,19 +548,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -583,19 +568,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -603,16 +588,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>38</v>
@@ -623,16 +608,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
@@ -643,16 +628,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>42</v>
@@ -663,16 +648,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
@@ -683,19 +668,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -703,19 +688,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -723,19 +708,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -743,19 +728,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -763,16 +748,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
@@ -783,16 +768,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -803,16 +788,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>60</v>
@@ -823,16 +808,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
@@ -843,19 +828,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -863,19 +848,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -883,19 +868,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -903,19 +888,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -923,19 +908,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -943,61 +928,21 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="78">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>indirizzoMorte</t>
+  </si>
+  <si>
+    <t>Dati della trascrizione</t>
+  </si>
+  <si>
+    <t>Data richiesta trascrizione</t>
+  </si>
+  <si>
+    <t>Riassunto</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
   </si>
 </sst>
 </file>
@@ -292,13 +304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="38.4453125" customWidth="true" bestFit="true"/>
@@ -946,6 +958,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,10 +59,16 @@
     <t>Autorità mittente</t>
   </si>
   <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.atto.enteEstero</t>
   </si>
   <si>
     <t>estremiDocumento</t>
@@ -304,14 +310,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.73046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="38.4453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
@@ -469,10 +475,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -483,13 +489,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -600,19 +606,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -620,16 +626,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
@@ -640,7 +646,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>41</v>
@@ -649,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>42</v>
@@ -660,7 +666,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>43</v>
@@ -669,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
@@ -680,19 +686,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -700,16 +706,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
@@ -720,7 +726,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>51</v>
@@ -729,7 +735,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>52</v>
@@ -740,7 +746,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>53</v>
@@ -749,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>54</v>
@@ -760,7 +766,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
@@ -769,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
@@ -780,7 +786,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
@@ -789,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -800,7 +806,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
@@ -809,7 +815,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>60</v>
@@ -820,7 +826,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
@@ -829,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>62</v>
@@ -840,19 +846,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -860,16 +866,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -880,7 +886,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
@@ -889,7 +895,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -900,7 +906,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>68</v>
@@ -909,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -920,7 +926,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>70</v>
@@ -929,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
@@ -940,7 +946,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>72</v>
@@ -949,7 +955,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>73</v>
@@ -960,19 +966,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -980,21 +986,41 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="82">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -310,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -322,6 +328,7 @@
     <col min="4" max="4" width="38.4453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -343,65 +350,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -423,605 +442,698 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -328,7 +328,7 @@
     <col min="4" max="4" width="38.4453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,31 +32,34 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -443,697 +446,697 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,105 @@
   </si>
   <si>
     <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -319,17 +418,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.73046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="38.4453125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1139,6 +1238,351 @@
         <v>20</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -680,7 +680,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>20</v>
@@ -726,7 +726,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>20</v>

--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -680,7 +680,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>20</v>
@@ -726,7 +726,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>20</v>

--- a/docs/Mapping_casi_uso/morte/Morte_004.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -418,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1516,39 +1522,39 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1571,7 +1577,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1580,6 +1586,29 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>20</v>
       </c>
     </row>
